--- a/assembler_reference.xlsx
+++ b/assembler_reference.xlsx
@@ -202,13 +202,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -421,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,9 +454,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,6 +512,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -789,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,22 +813,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -830,18 +837,18 @@
       <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -853,19 +860,19 @@
       <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -879,17 +886,17 @@
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -901,17 +908,17 @@
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -923,13 +930,13 @@
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -938,19 +945,19 @@
       <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,17 +967,17 @@
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,19 +987,19 @@
       <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1001,17 +1008,17 @@
       <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,84 +1027,87 @@
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
